--- a/database/industries/folad/feghadir/product/monthly_seprated.xlsx
+++ b/database/industries/folad/feghadir/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687562B0-8642-4C5B-B787-6107DC349039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +464,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,6 +523,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +575,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,17 +743,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -773,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -887,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -942,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1111,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1323,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1380,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>82989</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1696,7 +1731,7 @@
         <v>82989</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +1788,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
@@ -2069,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2126,7 +2161,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2283,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2440,7 +2475,7 @@
         <v>82989</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2495,7 +2530,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2550,7 +2585,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2605,7 +2640,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2817,7 +2852,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -2874,7 +2909,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>145075</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3225,7 @@
         <v>145075</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3247,7 +3282,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3406,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3563,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -3620,7 +3655,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -3777,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>70</v>
       </c>
@@ -3834,7 +3869,7 @@
       <c r="BA32" s="15"/>
       <c r="BB32" s="15"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
@@ -3991,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>64</v>
       </c>
@@ -4148,7 +4183,7 @@
         <v>145075</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4203,7 +4238,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4258,7 +4293,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4313,7 +4348,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
@@ -4470,7 +4505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4525,7 +4560,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
@@ -4582,7 +4617,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
@@ -4741,7 +4776,7 @@
         <v>12464944</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4898,7 +4933,7 @@
         <v>12464944</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>75</v>
       </c>
@@ -4955,7 +4990,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -5114,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>69</v>
       </c>
@@ -5271,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>76</v>
       </c>
@@ -5328,7 +5363,7 @@
       <c r="BA46" s="15"/>
       <c r="BB46" s="15"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>63</v>
       </c>
@@ -5487,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>77</v>
       </c>
@@ -5544,7 +5579,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>71</v>
       </c>
@@ -5703,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
@@ -5760,7 +5795,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>79</v>
       </c>
@@ -5919,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>64</v>
       </c>
@@ -6076,7 +6111,7 @@
         <v>12464944</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6131,7 +6166,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6186,7 +6221,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6241,7 +6276,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>80</v>
       </c>
@@ -6398,7 +6433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6453,7 +6488,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
@@ -6510,7 +6545,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -6669,7 +6704,7 @@
         <v>85920689</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>83</v>
       </c>
@@ -6726,7 +6761,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>

--- a/database/industries/folad/feghadir/product/monthly_seprated.xlsx
+++ b/database/industries/folad/feghadir/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\feghadir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687562B0-8642-4C5B-B787-6107DC349039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6A3AFC-C85A-484F-A5A5-2FCF8D7B484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فغدیر-آهن و فولاد غدیر ایرانیان</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1474,104 +1474,104 @@
       <c r="U11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
+      <c r="V11" s="11">
+        <v>63911</v>
       </c>
       <c r="W11" s="11">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="X11" s="11">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="Y11" s="11">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="Z11" s="11">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
       </c>
       <c r="AB11" s="11">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="AC11" s="11">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="AD11" s="11">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AE11" s="11">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AF11" s="11">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AG11" s="11">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AH11" s="11">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AI11" s="11">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AJ11" s="11">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AK11" s="11">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AL11" s="11">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AM11" s="11">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AN11" s="11">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AO11" s="11">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AP11" s="11">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AQ11" s="11">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AR11" s="11">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AS11" s="11">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AT11" s="11">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AU11" s="11">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AV11" s="11">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AW11" s="11">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AX11" s="11">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AY11" s="11">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AZ11" s="11">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="BA11" s="11">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="BB11" s="11">
-        <v>82989</v>
+        <v>56886</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1632,103 +1632,103 @@
         <v>0</v>
       </c>
       <c r="V12" s="13">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="W12" s="13">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="X12" s="13">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="Y12" s="13">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="Z12" s="13">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="13">
         <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="AC12" s="13">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="AD12" s="13">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AE12" s="13">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AF12" s="13">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AG12" s="13">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AH12" s="13">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AI12" s="13">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AJ12" s="13">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AK12" s="13">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AL12" s="13">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AM12" s="13">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AN12" s="13">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AO12" s="13">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AP12" s="13">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AQ12" s="13">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AR12" s="13">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AS12" s="13">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AT12" s="13">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AU12" s="13">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AV12" s="13">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AW12" s="13">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AX12" s="13">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AY12" s="13">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AZ12" s="13">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="BA12" s="13">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="BB12" s="13">
-        <v>82989</v>
+        <v>56886</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1883,11 +1883,11 @@
       <c r="AG14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="11">
-        <v>0</v>
+      <c r="AH14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>58</v>
@@ -1910,8 +1910,8 @@
       <c r="AP14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="11" t="s">
-        <v>58</v>
+      <c r="AQ14" s="11">
+        <v>0</v>
       </c>
       <c r="AR14" s="11">
         <v>0</v>
@@ -2218,8 +2218,8 @@
       <c r="U17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="17" t="s">
-        <v>58</v>
+      <c r="V17" s="17">
+        <v>0</v>
       </c>
       <c r="W17" s="17">
         <v>0</v>
@@ -2376,103 +2376,103 @@
         <v>0</v>
       </c>
       <c r="V18" s="13">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="W18" s="13">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="X18" s="13">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="Y18" s="13">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="Z18" s="13">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
       </c>
       <c r="AB18" s="13">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="AC18" s="13">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="AD18" s="13">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AE18" s="13">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AF18" s="13">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AG18" s="13">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AH18" s="13">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AI18" s="13">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AJ18" s="13">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AK18" s="13">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AL18" s="13">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AM18" s="13">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AN18" s="13">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AO18" s="13">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AP18" s="13">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AQ18" s="13">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AR18" s="13">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AS18" s="13">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AT18" s="13">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AU18" s="13">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AV18" s="13">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AW18" s="13">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AX18" s="13">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AY18" s="13">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AZ18" s="13">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="BA18" s="13">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="BB18" s="13">
-        <v>82989</v>
+        <v>56886</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2968,104 +2968,104 @@
       <c r="U25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>58</v>
+      <c r="V25" s="11">
+        <v>29889</v>
       </c>
       <c r="W25" s="11">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="X25" s="11">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="Y25" s="11">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="Z25" s="11">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="AA25" s="11">
-        <v>5000</v>
+        <v>16578</v>
       </c>
       <c r="AB25" s="11">
-        <v>16578</v>
+        <v>42966</v>
       </c>
       <c r="AC25" s="11">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="AD25" s="11">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AE25" s="11">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AF25" s="11">
-        <v>71792</v>
+        <v>71315</v>
       </c>
       <c r="AG25" s="11">
-        <v>71315</v>
+        <v>81418</v>
       </c>
       <c r="AH25" s="11">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AI25" s="11">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AJ25" s="11">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AK25" s="11">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AL25" s="11">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AM25" s="11">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AN25" s="11">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AO25" s="11">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AP25" s="11">
-        <v>115876</v>
+        <v>76974</v>
       </c>
       <c r="AQ25" s="11">
-        <v>76974</v>
+        <v>81244</v>
       </c>
       <c r="AR25" s="11">
-        <v>81244</v>
+        <v>65843</v>
       </c>
       <c r="AS25" s="11">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AT25" s="11">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AU25" s="11">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AV25" s="11">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AW25" s="11">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AX25" s="11">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AY25" s="11">
-        <v>45342</v>
+        <v>87944</v>
       </c>
       <c r="AZ25" s="11">
-        <v>87944</v>
+        <v>104823</v>
       </c>
       <c r="BA25" s="11">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="BB25" s="11">
-        <v>145075</v>
+        <v>54434</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3126,103 +3126,103 @@
         <v>0</v>
       </c>
       <c r="V26" s="13">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="W26" s="13">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="X26" s="13">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="Y26" s="13">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="Z26" s="13">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="AA26" s="13">
-        <v>5000</v>
+        <v>16578</v>
       </c>
       <c r="AB26" s="13">
-        <v>16578</v>
+        <v>42966</v>
       </c>
       <c r="AC26" s="13">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="AD26" s="13">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AE26" s="13">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AF26" s="13">
-        <v>71792</v>
+        <v>71315</v>
       </c>
       <c r="AG26" s="13">
-        <v>71315</v>
+        <v>81418</v>
       </c>
       <c r="AH26" s="13">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AI26" s="13">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AJ26" s="13">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AK26" s="13">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AL26" s="13">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AM26" s="13">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AN26" s="13">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AO26" s="13">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AP26" s="13">
-        <v>115876</v>
+        <v>76974</v>
       </c>
       <c r="AQ26" s="13">
-        <v>76974</v>
+        <v>81244</v>
       </c>
       <c r="AR26" s="13">
-        <v>81244</v>
+        <v>65843</v>
       </c>
       <c r="AS26" s="13">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AT26" s="13">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AU26" s="13">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AV26" s="13">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AW26" s="13">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AX26" s="13">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AY26" s="13">
-        <v>45342</v>
+        <v>87944</v>
       </c>
       <c r="AZ26" s="13">
-        <v>87944</v>
+        <v>104823</v>
       </c>
       <c r="BA26" s="13">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="BB26" s="13">
-        <v>145075</v>
+        <v>54434</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3356,12 +3356,12 @@
       <c r="Z28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB28" s="11">
+      <c r="AA28" s="11">
         <v>19970</v>
       </c>
+      <c r="AB28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3371,12 +3371,12 @@
       <c r="AE28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG28" s="11">
+      <c r="AF28" s="11">
         <v>21650</v>
       </c>
+      <c r="AG28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3401,11 +3401,11 @@
       <c r="AO28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP28" s="11" t="s">
-        <v>58</v>
+      <c r="AP28" s="11">
+        <v>997</v>
       </c>
       <c r="AQ28" s="11">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="11">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="AY28" s="11">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="AZ28" s="11">
-        <v>53101</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="11">
         <v>0</v>
       </c>
       <c r="BB28" s="11">
-        <v>0</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="13">
-        <v>0</v>
+        <v>19970</v>
       </c>
       <c r="AB29" s="13">
-        <v>19970</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="13">
         <v>0</v>
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="AF29" s="13">
-        <v>0</v>
+        <v>21650</v>
       </c>
       <c r="AG29" s="13">
-        <v>21650</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="13">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="AP29" s="13">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="AQ29" s="13">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="13">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="AY29" s="13">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="AZ29" s="13">
-        <v>53101</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="13">
         <v>0</v>
       </c>
       <c r="BB29" s="13">
-        <v>0</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3712,8 +3712,8 @@
       <c r="U31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="17" t="s">
-        <v>58</v>
+      <c r="V31" s="17">
+        <v>0</v>
       </c>
       <c r="W31" s="17">
         <v>0</v>
@@ -3926,8 +3926,8 @@
       <c r="U33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="17" t="s">
-        <v>58</v>
+      <c r="V33" s="17">
+        <v>0</v>
       </c>
       <c r="W33" s="17">
         <v>0</v>
@@ -4084,103 +4084,103 @@
         <v>0</v>
       </c>
       <c r="V34" s="13">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="W34" s="13">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="X34" s="13">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="Y34" s="13">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="Z34" s="13">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="AA34" s="13">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="AB34" s="13">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="AC34" s="13">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="AD34" s="13">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AE34" s="13">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AF34" s="13">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AG34" s="13">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AH34" s="13">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AI34" s="13">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AJ34" s="13">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AK34" s="13">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AL34" s="13">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AM34" s="13">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AN34" s="13">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AO34" s="13">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AP34" s="13">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AQ34" s="13">
-        <v>77971</v>
+        <v>81244</v>
       </c>
       <c r="AR34" s="13">
-        <v>81244</v>
+        <v>65843</v>
       </c>
       <c r="AS34" s="13">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AT34" s="13">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AU34" s="13">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AV34" s="13">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AW34" s="13">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AX34" s="13">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AY34" s="13">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AZ34" s="13">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="BA34" s="13">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="BB34" s="13">
-        <v>145075</v>
+        <v>59420</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4676,104 +4676,104 @@
       <c r="U41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>58</v>
+      <c r="V41" s="11">
+        <v>831679</v>
       </c>
       <c r="W41" s="11">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="X41" s="11">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="Y41" s="11">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="Z41" s="11">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="AA41" s="11">
-        <v>155721</v>
+        <v>643666</v>
       </c>
       <c r="AB41" s="11">
-        <v>643666</v>
+        <v>2299940</v>
       </c>
       <c r="AC41" s="11">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="AD41" s="11">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AE41" s="11">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AF41" s="11">
-        <v>4445143</v>
+        <v>4850686</v>
       </c>
       <c r="AG41" s="11">
-        <v>4850686</v>
+        <v>5684363</v>
       </c>
       <c r="AH41" s="11">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AI41" s="11">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AJ41" s="11">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AK41" s="11">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AL41" s="11">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AM41" s="11">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AN41" s="11">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AO41" s="11">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AP41" s="11">
-        <v>10025561</v>
+        <v>7021385</v>
       </c>
       <c r="AQ41" s="11">
-        <v>7021385</v>
+        <v>7001377</v>
       </c>
       <c r="AR41" s="11">
-        <v>7001377</v>
+        <v>6099582</v>
       </c>
       <c r="AS41" s="11">
-        <v>6099582</v>
+        <v>7682662</v>
       </c>
       <c r="AT41" s="11">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AU41" s="11">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AV41" s="11">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AW41" s="11">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AX41" s="11">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AY41" s="11">
-        <v>3227923</v>
+        <v>6411476</v>
       </c>
       <c r="AZ41" s="11">
-        <v>6411476</v>
+        <v>7811942</v>
       </c>
       <c r="BA41" s="11">
-        <v>7811942</v>
+        <v>11427424</v>
       </c>
       <c r="BB41" s="11">
-        <v>12464944</v>
+        <v>4645086</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -4834,103 +4834,103 @@
         <v>0</v>
       </c>
       <c r="V42" s="13">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="W42" s="13">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="X42" s="13">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="Y42" s="13">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="Z42" s="13">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="AA42" s="13">
-        <v>155721</v>
+        <v>643666</v>
       </c>
       <c r="AB42" s="13">
-        <v>643666</v>
+        <v>2299940</v>
       </c>
       <c r="AC42" s="13">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="AD42" s="13">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AE42" s="13">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AF42" s="13">
-        <v>4445143</v>
+        <v>4850686</v>
       </c>
       <c r="AG42" s="13">
-        <v>4850686</v>
+        <v>5684363</v>
       </c>
       <c r="AH42" s="13">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AI42" s="13">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AJ42" s="13">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AK42" s="13">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AL42" s="13">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AM42" s="13">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AN42" s="13">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AO42" s="13">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AP42" s="13">
-        <v>10025561</v>
+        <v>7021385</v>
       </c>
       <c r="AQ42" s="13">
-        <v>7021385</v>
+        <v>7001377</v>
       </c>
       <c r="AR42" s="13">
-        <v>7001377</v>
+        <v>6099582</v>
       </c>
       <c r="AS42" s="13">
-        <v>6099582</v>
+        <v>7682662</v>
       </c>
       <c r="AT42" s="13">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AU42" s="13">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AV42" s="13">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AW42" s="13">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AX42" s="13">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AY42" s="13">
-        <v>3227923</v>
+        <v>6411476</v>
       </c>
       <c r="AZ42" s="13">
-        <v>6411476</v>
+        <v>7811942</v>
       </c>
       <c r="BA42" s="13">
-        <v>7811942</v>
+        <v>11427424</v>
       </c>
       <c r="BB42" s="13">
-        <v>12464944</v>
+        <v>4645086</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5052,8 +5052,8 @@
       <c r="V44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>58</v>
+      <c r="W44" s="11">
+        <v>0</v>
       </c>
       <c r="X44" s="11">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>0</v>
+        <v>698626</v>
       </c>
       <c r="AB44" s="11">
-        <v>698626</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="11">
         <v>0</v>
@@ -5080,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="11">
-        <v>0</v>
+        <v>1336405</v>
       </c>
       <c r="AG44" s="11">
-        <v>1336405</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="11">
         <v>0</v>
@@ -5110,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="11">
-        <v>0</v>
+        <v>55856</v>
       </c>
       <c r="AQ44" s="11">
-        <v>55856</v>
+        <v>-10367</v>
       </c>
       <c r="AR44" s="11">
-        <v>-10367</v>
+        <v>32730</v>
       </c>
       <c r="AS44" s="11">
-        <v>32730</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="11">
         <v>0</v>
@@ -5137,16 +5137,16 @@
         <v>0</v>
       </c>
       <c r="AY44" s="11">
-        <v>0</v>
+        <v>3891322</v>
       </c>
       <c r="AZ44" s="11">
-        <v>3891322</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="11">
         <v>0</v>
       </c>
       <c r="BB44" s="11">
-        <v>0</v>
+        <v>372785</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5222,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="AA45" s="13">
-        <v>0</v>
+        <v>698626</v>
       </c>
       <c r="AB45" s="13">
-        <v>698626</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="13">
         <v>0</v>
@@ -5237,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="13">
-        <v>0</v>
+        <v>1336405</v>
       </c>
       <c r="AG45" s="13">
-        <v>1336405</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="13">
         <v>0</v>
@@ -5267,16 +5267,16 @@
         <v>0</v>
       </c>
       <c r="AP45" s="13">
-        <v>0</v>
+        <v>55856</v>
       </c>
       <c r="AQ45" s="13">
-        <v>55856</v>
+        <v>-10367</v>
       </c>
       <c r="AR45" s="13">
-        <v>-10367</v>
+        <v>32730</v>
       </c>
       <c r="AS45" s="13">
-        <v>32730</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="13">
         <v>0</v>
@@ -5294,16 +5294,16 @@
         <v>0</v>
       </c>
       <c r="AY45" s="13">
-        <v>0</v>
+        <v>3891322</v>
       </c>
       <c r="AZ45" s="13">
-        <v>3891322</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="13">
         <v>0</v>
       </c>
       <c r="BB45" s="13">
-        <v>0</v>
+        <v>372785</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5422,8 +5422,8 @@
       <c r="U47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V47" s="17" t="s">
-        <v>58</v>
+      <c r="V47" s="17">
+        <v>0</v>
       </c>
       <c r="W47" s="17">
         <v>0</v>
@@ -5638,8 +5638,8 @@
       <c r="U49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="V49" s="17" t="s">
-        <v>58</v>
+      <c r="V49" s="17">
+        <v>0</v>
       </c>
       <c r="W49" s="17">
         <v>0</v>
@@ -5854,8 +5854,8 @@
       <c r="U51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V51" s="11" t="s">
-        <v>58</v>
+      <c r="V51" s="11">
+        <v>0</v>
       </c>
       <c r="W51" s="11">
         <v>0</v>
@@ -6012,103 +6012,103 @@
         <v>0</v>
       </c>
       <c r="V52" s="13">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="W52" s="13">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="X52" s="13">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="Y52" s="13">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="Z52" s="13">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="AA52" s="13">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="AB52" s="13">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="AC52" s="13">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="AD52" s="13">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AE52" s="13">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AF52" s="13">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AG52" s="13">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AH52" s="13">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AI52" s="13">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AJ52" s="13">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AK52" s="13">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AL52" s="13">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AM52" s="13">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AN52" s="13">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AO52" s="13">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AP52" s="13">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AQ52" s="13">
-        <v>7077241</v>
+        <v>6991010</v>
       </c>
       <c r="AR52" s="13">
-        <v>6991010</v>
+        <v>6132312</v>
       </c>
       <c r="AS52" s="13">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AT52" s="13">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AU52" s="13">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AV52" s="13">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AW52" s="13">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AX52" s="13">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AY52" s="13">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AZ52" s="13">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="BA52" s="13">
-        <v>7811942</v>
+        <v>11427424</v>
       </c>
       <c r="BB52" s="13">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6604,104 +6604,104 @@
       <c r="U59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V59" s="11" t="s">
-        <v>58</v>
+      <c r="V59" s="11">
+        <v>27825588</v>
       </c>
       <c r="W59" s="11">
-        <v>27825588</v>
+        <v>27677473</v>
       </c>
       <c r="X59" s="11">
-        <v>27677473</v>
+        <v>26831460</v>
       </c>
       <c r="Y59" s="11">
-        <v>26831460</v>
+        <v>40134630</v>
       </c>
       <c r="Z59" s="11">
-        <v>40134630</v>
+        <v>31144200</v>
       </c>
       <c r="AA59" s="11">
-        <v>31144200</v>
+        <v>38826517</v>
       </c>
       <c r="AB59" s="11">
-        <v>38826517</v>
+        <v>53529302</v>
       </c>
       <c r="AC59" s="11">
-        <v>53529302</v>
+        <v>53886918</v>
       </c>
       <c r="AD59" s="11">
-        <v>53886918</v>
+        <v>49527782</v>
       </c>
       <c r="AE59" s="11">
-        <v>49527782</v>
+        <v>61916968</v>
       </c>
       <c r="AF59" s="11">
-        <v>61916968</v>
+        <v>68017752</v>
       </c>
       <c r="AG59" s="11">
-        <v>68017752</v>
+        <v>69817031</v>
       </c>
       <c r="AH59" s="11">
-        <v>69817031</v>
+        <v>72043243</v>
       </c>
       <c r="AI59" s="11">
-        <v>72043243</v>
+        <v>73536303</v>
       </c>
       <c r="AJ59" s="11">
-        <v>73536303</v>
+        <v>79547049</v>
       </c>
       <c r="AK59" s="11">
-        <v>79547049</v>
+        <v>84927020</v>
       </c>
       <c r="AL59" s="11">
-        <v>84927020</v>
+        <v>85321821</v>
       </c>
       <c r="AM59" s="11">
-        <v>85321821</v>
+        <v>82853218</v>
       </c>
       <c r="AN59" s="11">
-        <v>82853218</v>
+        <v>81605322</v>
       </c>
       <c r="AO59" s="11">
-        <v>81605322</v>
+        <v>86519737</v>
       </c>
       <c r="AP59" s="11">
-        <v>86519737</v>
+        <v>91217619</v>
       </c>
       <c r="AQ59" s="11">
-        <v>91217619</v>
+        <v>85061909</v>
       </c>
       <c r="AR59" s="11">
-        <v>85061909</v>
+        <v>92638276</v>
       </c>
       <c r="AS59" s="11">
-        <v>92638276</v>
+        <v>94199909</v>
       </c>
       <c r="AT59" s="11">
-        <v>94199909</v>
+        <v>100875544</v>
       </c>
       <c r="AU59" s="11">
-        <v>100875544</v>
+        <v>102264649</v>
       </c>
       <c r="AV59" s="11">
-        <v>102264649</v>
+        <v>89721528</v>
       </c>
       <c r="AW59" s="11">
-        <v>89721528</v>
+        <v>79999652</v>
       </c>
       <c r="AX59" s="11">
-        <v>79999652</v>
+        <v>71190574</v>
       </c>
       <c r="AY59" s="11">
-        <v>71190574</v>
+        <v>72904075</v>
       </c>
       <c r="AZ59" s="11">
-        <v>72904075</v>
+        <v>74525076</v>
       </c>
       <c r="BA59" s="11">
-        <v>74525076</v>
+        <v>78769078</v>
       </c>
       <c r="BB59" s="11">
-        <v>85920689</v>
+        <v>85334276</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -6835,12 +6835,12 @@
       <c r="Z61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB61" s="11">
+      <c r="AA61" s="11">
         <v>34983776</v>
       </c>
+      <c r="AB61" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC61" s="11" t="s">
         <v>58</v>
       </c>
@@ -6850,12 +6850,12 @@
       <c r="AE61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG61" s="11">
+      <c r="AF61" s="11">
         <v>61727714</v>
       </c>
+      <c r="AG61" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH61" s="11" t="s">
         <v>58</v>
       </c>
@@ -6880,15 +6880,15 @@
       <c r="AO61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="11" t="s">
-        <v>58</v>
+      <c r="AP61" s="11">
+        <v>56018454</v>
       </c>
       <c r="AQ61" s="11">
-        <v>56018454</v>
-      </c>
-      <c r="AR61" s="11">
         <v>-10397152</v>
       </c>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS61" s="11" t="s">
         <v>58</v>
       </c>
@@ -6907,17 +6907,17 @@
       <c r="AX61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ61" s="11">
+      <c r="AY61" s="11">
         <v>73281520</v>
       </c>
-      <c r="BA61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB61" s="11" t="s">
-        <v>58</v>
+      <c r="AZ61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA61" s="11">
+        <v>78769078</v>
+      </c>
+      <c r="BB61" s="11">
+        <v>74766346</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/feghadir/product/monthly_seprated.xlsx
+++ b/database/industries/folad/feghadir/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="84">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3263,116 +3263,116 @@
       <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>58</v>
+      <c r="R11" s="13" t="n">
+        <v>63911</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="W11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>82989</v>
+        <v>56886</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>56886</v>
+        <v>22601</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>22601</v>
+        <v>23513</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>23513</v>
+        <v>81896</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>81896</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,115 +3421,115 @@
         <v>0</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="W12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>82989</v>
+        <v>56886</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>56886</v>
+        <v>22601</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>22601</v>
+        <v>23513</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>23513</v>
+        <v>81896</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>81896</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,11 +3672,11 @@
       <c r="AC14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE14" s="13" t="n">
-        <v>0</v>
+      <c r="AD14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF14" s="13" t="s">
         <v>58</v>
@@ -3702,8 +3702,8 @@
       <c r="AM14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
+      <c r="AN14" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO14" s="13" t="n">
         <v>0</v>
@@ -4007,8 +4007,8 @@
       <c r="Q17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="19" t="s">
-        <v>58</v>
+      <c r="R17" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="S17" s="19" t="n">
         <v>0</v>
@@ -4165,115 +4165,115 @@
         <v>0</v>
       </c>
       <c r="R18" s="15" t="n">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="S18" s="15" t="n">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="T18" s="15" t="n">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="W18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AA18" s="15" t="n">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AB18" s="15" t="n">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AC18" s="15" t="n">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AD18" s="15" t="n">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AE18" s="15" t="n">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AF18" s="15" t="n">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AG18" s="15" t="n">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AH18" s="15" t="n">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AI18" s="15" t="n">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AJ18" s="15" t="n">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AK18" s="15" t="n">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AL18" s="15" t="n">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AO18" s="15" t="n">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AP18" s="15" t="n">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AS18" s="15" t="n">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AT18" s="15" t="n">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AU18" s="15" t="n">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>82989</v>
+        <v>56886</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>56886</v>
+        <v>22601</v>
       </c>
       <c r="AZ18" s="15" t="n">
-        <v>22601</v>
+        <v>23513</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>23513</v>
+        <v>81896</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>81896</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,116 +4757,116 @@
       <c r="Q25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>58</v>
+      <c r="R25" s="13" t="n">
+        <v>29889</v>
       </c>
       <c r="S25" s="13" t="n">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="T25" s="13" t="n">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="U25" s="13" t="n">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="W25" s="13" t="n">
-        <v>5000</v>
+        <v>16578</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>16578</v>
+        <v>42966</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>71792</v>
+        <v>71315</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>71315</v>
+        <v>81418</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>115876</v>
+        <v>76974</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>76974</v>
+        <v>70761</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>70761</v>
+        <v>65843</v>
       </c>
       <c r="AO25" s="13" t="n">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AP25" s="13" t="n">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>45342</v>
+        <v>87944</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>87944</v>
+        <v>104823</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>145075</v>
+        <v>54434</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>54434</v>
+        <v>22279</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>22279</v>
+        <v>15813</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>15813</v>
+        <v>70974</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>70974</v>
+        <v>83432</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,115 +4915,115 @@
         <v>0</v>
       </c>
       <c r="R26" s="15" t="n">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="S26" s="15" t="n">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="T26" s="15" t="n">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>5000</v>
+        <v>16578</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>16578</v>
+        <v>42966</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>71792</v>
+        <v>71315</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>71315</v>
+        <v>81418</v>
       </c>
       <c r="AD26" s="15" t="n">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AE26" s="15" t="n">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AF26" s="15" t="n">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AG26" s="15" t="n">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AH26" s="15" t="n">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AI26" s="15" t="n">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AJ26" s="15" t="n">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AK26" s="15" t="n">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>115876</v>
+        <v>76974</v>
       </c>
       <c r="AM26" s="15" t="n">
-        <v>76974</v>
+        <v>70761</v>
       </c>
       <c r="AN26" s="15" t="n">
-        <v>70761</v>
+        <v>65843</v>
       </c>
       <c r="AO26" s="15" t="n">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AP26" s="15" t="n">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AR26" s="15" t="n">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>45342</v>
+        <v>87944</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>87944</v>
+        <v>104823</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="AX26" s="15" t="n">
-        <v>145075</v>
+        <v>54434</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>54434</v>
+        <v>22279</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>22279</v>
+        <v>15813</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>15813</v>
+        <v>70974</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>70974</v>
+        <v>83432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,12 +5145,12 @@
       <c r="V28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="13" t="n">
+      <c r="W28" s="13" t="n">
         <v>19970</v>
       </c>
+      <c r="X28" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y28" s="13" t="s">
         <v>58</v>
       </c>
@@ -5160,12 +5160,12 @@
       <c r="AA28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC28" s="13" t="n">
+      <c r="AB28" s="13" t="n">
         <v>21650</v>
       </c>
+      <c r="AC28" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD28" s="13" t="s">
         <v>58</v>
       </c>
@@ -5190,14 +5190,14 @@
       <c r="AK28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM28" s="13" t="n">
+      <c r="AL28" s="13" t="n">
         <v>997</v>
       </c>
-      <c r="AN28" s="13" t="s">
-        <v>58</v>
+      <c r="AM28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO28" s="13" t="n">
         <v>0</v>
@@ -5218,22 +5218,22 @@
         <v>0</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>53101</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>0</v>
+        <v>4986</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>4986</v>
+        <v>1000</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="13" t="n">
         <v>0</v>
@@ -5303,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="15" t="n">
-        <v>0</v>
+        <v>19970</v>
       </c>
       <c r="X29" s="15" t="n">
-        <v>19970</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15" t="n">
         <v>0</v>
@@ -5318,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="AB29" s="15" t="n">
-        <v>0</v>
+        <v>21650</v>
       </c>
       <c r="AC29" s="15" t="n">
-        <v>21650</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="15" t="n">
         <v>0</v>
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="AL29" s="15" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="AM29" s="15" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="15" t="n">
         <v>0</v>
@@ -5375,22 +5375,22 @@
         <v>0</v>
       </c>
       <c r="AU29" s="15" t="n">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="AV29" s="15" t="n">
-        <v>53101</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AX29" s="15" t="n">
-        <v>0</v>
+        <v>4986</v>
       </c>
       <c r="AY29" s="15" t="n">
-        <v>4986</v>
+        <v>1000</v>
       </c>
       <c r="AZ29" s="15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="15" t="n">
         <v>0</v>
@@ -5501,8 +5501,8 @@
       <c r="Q31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R31" s="19" t="s">
-        <v>58</v>
+      <c r="R31" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="S31" s="19" t="n">
         <v>0</v>
@@ -5715,8 +5715,8 @@
       <c r="Q33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="19" t="s">
-        <v>58</v>
+      <c r="R33" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="S33" s="19" t="n">
         <v>0</v>
@@ -5873,115 +5873,115 @@
         <v>0</v>
       </c>
       <c r="R34" s="15" t="n">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="S34" s="15" t="n">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="T34" s="15" t="n">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="U34" s="15" t="n">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="V34" s="15" t="n">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="W34" s="15" t="n">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="X34" s="15" t="n">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="Y34" s="15" t="n">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="Z34" s="15" t="n">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AA34" s="15" t="n">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AB34" s="15" t="n">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AC34" s="15" t="n">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AD34" s="15" t="n">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AE34" s="15" t="n">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AF34" s="15" t="n">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AG34" s="15" t="n">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AH34" s="15" t="n">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AI34" s="15" t="n">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AJ34" s="15" t="n">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AK34" s="15" t="n">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AL34" s="15" t="n">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AM34" s="15" t="n">
-        <v>77971</v>
+        <v>70761</v>
       </c>
       <c r="AN34" s="15" t="n">
-        <v>70761</v>
+        <v>65843</v>
       </c>
       <c r="AO34" s="15" t="n">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AP34" s="15" t="n">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AQ34" s="15" t="n">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AR34" s="15" t="n">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AS34" s="15" t="n">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AT34" s="15" t="n">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AU34" s="15" t="n">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AV34" s="15" t="n">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="AW34" s="15" t="n">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="AX34" s="15" t="n">
-        <v>145075</v>
+        <v>59420</v>
       </c>
       <c r="AY34" s="15" t="n">
-        <v>59420</v>
+        <v>23279</v>
       </c>
       <c r="AZ34" s="15" t="n">
-        <v>23279</v>
+        <v>15813</v>
       </c>
       <c r="BA34" s="15" t="n">
-        <v>15813</v>
+        <v>70974</v>
       </c>
       <c r="BB34" s="15" t="n">
-        <v>70974</v>
+        <v>83432</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,116 +6465,116 @@
       <c r="Q41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R41" s="13" t="s">
-        <v>58</v>
+      <c r="R41" s="13" t="n">
+        <v>831679</v>
       </c>
       <c r="S41" s="13" t="n">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="U41" s="13" t="n">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>155721</v>
+        <v>643666</v>
       </c>
       <c r="X41" s="13" t="n">
-        <v>643666</v>
+        <v>2299940</v>
       </c>
       <c r="Y41" s="13" t="n">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>4445143</v>
+        <v>4850686</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>4850686</v>
+        <v>5684363</v>
       </c>
       <c r="AD41" s="13" t="n">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AE41" s="13" t="n">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AF41" s="13" t="n">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AG41" s="13" t="n">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AL41" s="13" t="n">
-        <v>10025561</v>
+        <v>7021385</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>7021385</v>
+        <v>6006461</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>6006461</v>
+        <v>6099582</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>6099582</v>
+        <v>7682662</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>3227923</v>
+        <v>6411476</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>6411476</v>
+        <v>7811942</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>7811942</v>
+        <v>12464944</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>12464944</v>
+        <v>4645086</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>4645086</v>
+        <v>2503155</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>2503155</v>
+        <v>1700715</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>1700715</v>
+        <v>8706967</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>8706967</v>
+        <v>9326834</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,115 +6623,115 @@
         <v>0</v>
       </c>
       <c r="R42" s="15" t="n">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="S42" s="15" t="n">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="U42" s="15" t="n">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="V42" s="15" t="n">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="W42" s="15" t="n">
-        <v>155721</v>
+        <v>643666</v>
       </c>
       <c r="X42" s="15" t="n">
-        <v>643666</v>
+        <v>2299940</v>
       </c>
       <c r="Y42" s="15" t="n">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="Z42" s="15" t="n">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AA42" s="15" t="n">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AB42" s="15" t="n">
-        <v>4445143</v>
+        <v>4850686</v>
       </c>
       <c r="AC42" s="15" t="n">
-        <v>4850686</v>
+        <v>5684363</v>
       </c>
       <c r="AD42" s="15" t="n">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AE42" s="15" t="n">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AF42" s="15" t="n">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AG42" s="15" t="n">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AH42" s="15" t="n">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AI42" s="15" t="n">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AJ42" s="15" t="n">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AK42" s="15" t="n">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AL42" s="15" t="n">
-        <v>10025561</v>
+        <v>7021385</v>
       </c>
       <c r="AM42" s="15" t="n">
-        <v>7021385</v>
+        <v>6006461</v>
       </c>
       <c r="AN42" s="15" t="n">
-        <v>6006461</v>
+        <v>6099582</v>
       </c>
       <c r="AO42" s="15" t="n">
-        <v>6099582</v>
+        <v>7682662</v>
       </c>
       <c r="AP42" s="15" t="n">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AQ42" s="15" t="n">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AR42" s="15" t="n">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AS42" s="15" t="n">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AT42" s="15" t="n">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AU42" s="15" t="n">
-        <v>3227923</v>
+        <v>6411476</v>
       </c>
       <c r="AV42" s="15" t="n">
-        <v>6411476</v>
+        <v>7811942</v>
       </c>
       <c r="AW42" s="15" t="n">
-        <v>7811942</v>
+        <v>12464944</v>
       </c>
       <c r="AX42" s="15" t="n">
-        <v>12464944</v>
+        <v>4645086</v>
       </c>
       <c r="AY42" s="15" t="n">
-        <v>4645086</v>
+        <v>2503155</v>
       </c>
       <c r="AZ42" s="15" t="n">
-        <v>2503155</v>
+        <v>1700715</v>
       </c>
       <c r="BA42" s="15" t="n">
-        <v>1700715</v>
+        <v>8706967</v>
       </c>
       <c r="BB42" s="15" t="n">
-        <v>8706967</v>
+        <v>9326834</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,8 +6841,8 @@
       <c r="R44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>58</v>
+      <c r="S44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T44" s="13" t="n">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="13" t="n">
-        <v>0</v>
+        <v>698626</v>
       </c>
       <c r="X44" s="13" t="n">
-        <v>698626</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="13" t="n">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>0</v>
+        <v>1336405</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>1336405</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="13" t="n">
         <v>0</v>
@@ -6899,16 +6899,16 @@
         <v>0</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>0</v>
+        <v>55856</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>55856</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>0</v>
+        <v>32730</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>32730</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="13" t="n">
         <v>0</v>
@@ -6926,22 +6926,22 @@
         <v>0</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>0</v>
+        <v>3891322</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>3891322</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>0</v>
+        <v>372785</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>372785</v>
+        <v>78403</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>78403</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="13" t="n">
         <v>0</v>
@@ -7011,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="15" t="n">
-        <v>0</v>
+        <v>698626</v>
       </c>
       <c r="X45" s="15" t="n">
-        <v>698626</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="15" t="n">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="AB45" s="15" t="n">
-        <v>0</v>
+        <v>1336405</v>
       </c>
       <c r="AC45" s="15" t="n">
-        <v>1336405</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="15" t="n">
         <v>0</v>
@@ -7056,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="AL45" s="15" t="n">
-        <v>0</v>
+        <v>55856</v>
       </c>
       <c r="AM45" s="15" t="n">
-        <v>55856</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="15" t="n">
-        <v>0</v>
+        <v>32730</v>
       </c>
       <c r="AO45" s="15" t="n">
-        <v>32730</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="15" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>0</v>
       </c>
       <c r="AU45" s="15" t="n">
-        <v>0</v>
+        <v>3891322</v>
       </c>
       <c r="AV45" s="15" t="n">
-        <v>3891322</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AX45" s="15" t="n">
-        <v>0</v>
+        <v>372785</v>
       </c>
       <c r="AY45" s="15" t="n">
-        <v>372785</v>
+        <v>78403</v>
       </c>
       <c r="AZ45" s="15" t="n">
-        <v>78403</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="15" t="n">
         <v>0</v>
@@ -7211,8 +7211,8 @@
       <c r="Q47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R47" s="19" t="s">
-        <v>58</v>
+      <c r="R47" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S47" s="20" t="n">
         <v>0</v>
@@ -7427,8 +7427,8 @@
       <c r="Q49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R49" s="19" t="s">
-        <v>58</v>
+      <c r="R49" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S49" s="20" t="n">
         <v>0</v>
@@ -7643,8 +7643,8 @@
       <c r="Q51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="13" t="s">
-        <v>58</v>
+      <c r="R51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S51" s="13" t="n">
         <v>0</v>
@@ -7801,115 +7801,115 @@
         <v>0</v>
       </c>
       <c r="R52" s="15" t="n">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="S52" s="15" t="n">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="U52" s="15" t="n">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="V52" s="15" t="n">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="W52" s="15" t="n">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="X52" s="15" t="n">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="Y52" s="15" t="n">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="Z52" s="15" t="n">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AA52" s="15" t="n">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AB52" s="15" t="n">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AC52" s="15" t="n">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AD52" s="15" t="n">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AE52" s="15" t="n">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AF52" s="15" t="n">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AG52" s="15" t="n">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AH52" s="15" t="n">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AI52" s="15" t="n">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AJ52" s="15" t="n">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AK52" s="15" t="n">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AL52" s="15" t="n">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AM52" s="15" t="n">
-        <v>7077241</v>
+        <v>6006461</v>
       </c>
       <c r="AN52" s="15" t="n">
-        <v>6006461</v>
+        <v>6132312</v>
       </c>
       <c r="AO52" s="15" t="n">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AP52" s="15" t="n">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AQ52" s="15" t="n">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AR52" s="15" t="n">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AS52" s="15" t="n">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AT52" s="15" t="n">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AU52" s="15" t="n">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AV52" s="15" t="n">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="AW52" s="15" t="n">
-        <v>7811942</v>
+        <v>12464944</v>
       </c>
       <c r="AX52" s="15" t="n">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
       <c r="AY52" s="15" t="n">
-        <v>5017871</v>
+        <v>2581558</v>
       </c>
       <c r="AZ52" s="15" t="n">
-        <v>2581558</v>
+        <v>1700715</v>
       </c>
       <c r="BA52" s="15" t="n">
-        <v>1700715</v>
+        <v>8706967</v>
       </c>
       <c r="BB52" s="15" t="n">
-        <v>8706967</v>
+        <v>9326834</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8393,116 +8393,116 @@
       <c r="Q59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R59" s="13" t="s">
-        <v>58</v>
+      <c r="R59" s="13" t="n">
+        <v>27825588</v>
       </c>
       <c r="S59" s="13" t="n">
-        <v>27825588</v>
+        <v>27677473</v>
       </c>
       <c r="T59" s="13" t="n">
-        <v>27677473</v>
+        <v>26831460</v>
       </c>
       <c r="U59" s="13" t="n">
-        <v>26831460</v>
+        <v>40134630</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>40134630</v>
+        <v>31144200</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>31144200</v>
+        <v>38826517</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>38826517</v>
+        <v>53529302</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>53529302</v>
+        <v>53886918</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>53886918</v>
+        <v>49527782</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>49527782</v>
+        <v>61916968</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>61916968</v>
+        <v>68017752</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>68017752</v>
+        <v>69817031</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>69817031</v>
+        <v>72043243</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>72043243</v>
+        <v>73536303</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>73536303</v>
+        <v>79547049</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>79547049</v>
+        <v>84927020</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>84927020</v>
+        <v>85321821</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>85321821</v>
+        <v>82853218</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>82853218</v>
+        <v>81605322</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>81605322</v>
+        <v>86519737</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>86519737</v>
+        <v>91217619</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>91217619</v>
+        <v>84883778</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>84883778</v>
+        <v>92638276</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>92638276</v>
+        <v>94199909</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>94199909</v>
+        <v>100875544</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>100875544</v>
+        <v>102264649</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>102264649</v>
+        <v>89721528</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>89721528</v>
+        <v>79999652</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>79999652</v>
+        <v>71190574</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>71190574</v>
+        <v>72904075</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>72904075</v>
+        <v>74525076</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>74525076</v>
+        <v>85920689</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>85920689</v>
+        <v>85334276</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>85334276</v>
+        <v>112354908</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>112354908</v>
+        <v>107551698</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>107551698</v>
+        <v>122678262</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>122678262</v>
+        <v>111789649</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,12 +8624,12 @@
       <c r="V61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="13" t="n">
+      <c r="W61" s="13" t="n">
         <v>34983776</v>
       </c>
+      <c r="X61" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y61" s="13" t="s">
         <v>58</v>
       </c>
@@ -8639,12 +8639,12 @@
       <c r="AA61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC61" s="13" t="n">
+      <c r="AB61" s="13" t="n">
         <v>61727714</v>
       </c>
+      <c r="AC61" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD61" s="13" t="s">
         <v>58</v>
       </c>
@@ -8669,12 +8669,12 @@
       <c r="AK61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM61" s="13" t="n">
+      <c r="AL61" s="13" t="n">
         <v>56018454</v>
       </c>
+      <c r="AM61" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN61" s="13" t="s">
         <v>58</v>
       </c>
@@ -8696,23 +8696,23 @@
       <c r="AT61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV61" s="13" t="n">
+      <c r="AU61" s="13" t="n">
         <v>73281520</v>
       </c>
+      <c r="AV61" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX61" s="13" t="s">
-        <v>58</v>
+      <c r="AX61" s="13" t="n">
+        <v>74766346</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>74766346</v>
-      </c>
-      <c r="AZ61" s="13" t="n">
         <v>78403000</v>
+      </c>
+      <c r="AZ61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA61" s="13" t="s">
         <v>58</v>
